--- a/data/all_question.xlsx
+++ b/data/all_question.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sean0720/GoogleOne/Code/Python/LineBot/starnic/training/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sean0720/GoogleOne/Code/Python/ai-doctor-rag/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20189C1-D577-C948-ADB1-DFF93D927651}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2F043F-86F2-444D-9995-86786463BEB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3724,8 +3724,8 @@
   </sheetPr>
   <dimension ref="A1:C487"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A478" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B473" sqref="B473"/>
+    <sheetView tabSelected="1" topLeftCell="A483" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A493" sqref="A493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="16"/>
